--- a/excel/bist30.Xlsx
+++ b/excel/bist30.Xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\AI_Trade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\AI_Trade\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A6B87D-35E6-4932-A799-1F176D8D30FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{8132D14D-D46A-40CB-A333-F638638FC0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Windows User - Kişisel Görünüm" guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1223" windowHeight="455" activeSheetId="1"/>
     <customWorkbookView name="Bora - Kişisel Görünüm" guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Windows User - Kişisel Görünüm" guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1223" windowHeight="455" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="310">
   <si>
     <t>Kod</t>
   </si>
@@ -130,9 +130,6 @@
     <t>49,20</t>
   </si>
   <si>
-    <t>ASTOR</t>
-  </si>
-  <si>
     <t>0,38</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>0,07</t>
-  </si>
-  <si>
-    <t>0,37</t>
   </si>
   <si>
     <t>0,79</t>
@@ -404,30 +398,6 @@
   </si>
   <si>
     <t>-2,07</t>
-  </si>
-  <si>
-    <t>107,30</t>
-  </si>
-  <si>
-    <t>107,20</t>
-  </si>
-  <si>
-    <t>109,20</t>
-  </si>
-  <si>
-    <t>106,20</t>
-  </si>
-  <si>
-    <t>1.683.769.550</t>
-  </si>
-  <si>
-    <t>15.679.667</t>
-  </si>
-  <si>
-    <t>109,00</t>
-  </si>
-  <si>
-    <t>-1,70</t>
   </si>
   <si>
     <t>467,50</t>
@@ -1042,8 +1012,15 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4AB529BF-7B6A-4A03-A872-41DA48C5D3AF}" diskRevisions="1" revisionId="37917" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5AA76157-84CB-4134-B34A-ACF2C537A1E3}" diskRevisions="1" revisionId="37919" version="3">
   <header guid="{4AB529BF-7B6A-4A03-A872-41DA48C5D3AF}" dateTime="2024-05-26T21:36:45" maxSheetId="4" userName="Bora" r:id="rId9" minRId="34171" maxRId="37917">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5AA76157-84CB-4134-B34A-ACF2C537A1E3}" dateTime="2024-06-09T02:13:58" maxSheetId="4" userName="Bora" r:id="rId10" minRId="37918" maxRId="37919">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -33424,8 +33401,166 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="37918" sId="1">
+    <oc r="A5" t="inlineStr">
+      <is>
+        <t>ASTOR</t>
+      </is>
+    </oc>
+    <nc r="A5"/>
+  </rcc>
+  <rrc rId="37919" sId="1" ref="A5:XFD5" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A5:XFD5" start="0" length="0"/>
+    <rcc rId="0" sId="1">
+      <nc r="B5" t="inlineStr">
+        <is>
+          <t>107,30</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="C5" t="inlineStr">
+        <is>
+          <t>È</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="D5" t="inlineStr">
+        <is>
+          <t>107,20</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="E5" t="inlineStr">
+        <is>
+          <t>107,30</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="F5" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="G5" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="H5" t="inlineStr">
+        <is>
+          <t>109,20</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="I5" t="inlineStr">
+        <is>
+          <t>106,20</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="J5" t="inlineStr">
+        <is>
+          <t>1.683.769.550</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="K5" t="inlineStr">
+        <is>
+          <t>15.679.667</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="L5" t="inlineStr">
+        <is>
+          <t>109,00</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="M5" t="inlineStr">
+        <is>
+          <t>-1,70</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="N5" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="O5" t="inlineStr">
+        <is>
+          <t>109,20</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="P5" t="inlineStr">
+        <is>
+          <t>106,20</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="Q5" t="inlineStr">
+        <is>
+          <t>1.683.769.550</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="R5" t="inlineStr">
+        <is>
+          <t>15.679.667</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="S5" t="inlineStr">
+        <is>
+          <t>109,00</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="T5" t="inlineStr">
+        <is>
+          <t>-1,70</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="1">
+      <nc r="U5" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{5AA76157-84CB-4134-B34A-ACF2C537A1E3}" name="Bora" id="-889773615" dateTime="2024-06-09T01:49:51"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33715,15 +33850,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W525"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33731,2505 +33866,1955 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
       </c>
       <c r="R1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
         <v>84</v>
-      </c>
-      <c r="S1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" t="s">
-        <v>86</v>
       </c>
       <c r="U1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" t="s">
-        <v>111</v>
-      </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>114</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>115</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>116</v>
-      </c>
-      <c r="K3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" t="s">
-        <v>118</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" t="s">
         <v>114</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>116</v>
-      </c>
-      <c r="R3" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" t="s">
-        <v>118</v>
       </c>
       <c r="T3" t="s">
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" t="s">
         <v>120</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>121</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>122</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
         <v>123</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>124</v>
       </c>
-      <c r="M4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
         <v>125</v>
       </c>
-      <c r="O4" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" t="s">
-        <v>124</v>
-      </c>
-      <c r="T4" t="s">
-        <v>98</v>
-      </c>
-      <c r="U4" t="s">
-        <v>125</v>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6">
+        <v>489.92899999999997</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
         <v>131</v>
       </c>
-      <c r="L5" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" t="s">
         <v>133</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6">
+        <v>489.92899999999997</v>
+      </c>
+      <c r="S6" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" t="s">
+        <v>145</v>
+      </c>
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" t="s">
-        <v>132</v>
-      </c>
-      <c r="T5" t="s">
-        <v>133</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R8" t="s">
+        <v>150</v>
+      </c>
+      <c r="S8" t="s">
         <v>97</v>
       </c>
+      <c r="T8" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>136</v>
-      </c>
-      <c r="P6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" t="s">
-        <v>139</v>
-      </c>
-      <c r="S6" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" t="s">
-        <v>141</v>
-      </c>
-      <c r="U6" t="s">
-        <v>142</v>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S9" t="s">
+        <v>157</v>
+      </c>
+      <c r="T9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7">
-        <v>489.92899999999997</v>
-      </c>
-      <c r="L7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7">
-        <v>489.92899999999997</v>
-      </c>
-      <c r="S7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T7" t="s">
-        <v>141</v>
-      </c>
-      <c r="U7" t="s">
-        <v>148</v>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>156</v>
-      </c>
-      <c r="O8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R8" t="s">
-        <v>154</v>
-      </c>
-      <c r="S8" t="s">
-        <v>155</v>
-      </c>
-      <c r="T8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>159</v>
-      </c>
-      <c r="R9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S9" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>168</v>
       </c>
-      <c r="O10" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>165</v>
-      </c>
-      <c r="R10" t="s">
-        <v>166</v>
-      </c>
-      <c r="S10" t="s">
-        <v>167</v>
-      </c>
-      <c r="T10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>169</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" t="s">
-        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
         <v>171</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>172</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>173</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>174</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
+        <v>174</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S11" t="s">
+        <v>173</v>
+      </c>
+      <c r="T11" t="s">
+        <v>174</v>
+      </c>
+      <c r="U11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="M11" t="s">
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
         <v>176</v>
       </c>
-      <c r="N11" t="s">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
         <v>177</v>
       </c>
-      <c r="O11" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>173</v>
-      </c>
-      <c r="R11" t="s">
-        <v>174</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="I12" t="s">
         <v>175</v>
       </c>
-      <c r="T11" t="s">
-        <v>176</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
         <v>177</v>
       </c>
+      <c r="P12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" t="s">
+        <v>180</v>
+      </c>
+      <c r="T12" t="s">
+        <v>181</v>
+      </c>
+      <c r="U12" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>182</v>
       </c>
-      <c r="L12" t="s">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" t="s">
         <v>183</v>
       </c>
-      <c r="M12" t="s">
+      <c r="F13" t="s">
         <v>184</v>
       </c>
-      <c r="N12" t="s">
-        <v>184</v>
-      </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R12" t="s">
-        <v>182</v>
-      </c>
-      <c r="S12" t="s">
-        <v>183</v>
-      </c>
-      <c r="T12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U12" t="s">
-        <v>184</v>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>187</v>
+      </c>
+      <c r="R13" t="s">
+        <v>188</v>
+      </c>
+      <c r="S13" t="s">
+        <v>189</v>
+      </c>
+      <c r="T13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
         <v>186</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" t="s">
-        <v>190</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
         <v>191</v>
       </c>
-      <c r="N13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" t="s">
-        <v>187</v>
-      </c>
-      <c r="P13" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>188</v>
-      </c>
-      <c r="R13" t="s">
-        <v>189</v>
-      </c>
-      <c r="S13" t="s">
-        <v>190</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="I14" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
         <v>191</v>
       </c>
-      <c r="U13" t="s">
-        <v>96</v>
+      <c r="P14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>193</v>
+      </c>
+      <c r="R14" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" t="s">
+        <v>192</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>195</v>
       </c>
-      <c r="I14" t="s">
-        <v>196</v>
-      </c>
-      <c r="J14" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" t="s">
-        <v>199</v>
-      </c>
-      <c r="M14" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>195</v>
-      </c>
-      <c r="P14" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>197</v>
-      </c>
-      <c r="R14" t="s">
-        <v>198</v>
-      </c>
-      <c r="S14" t="s">
-        <v>199</v>
-      </c>
-      <c r="T14" t="s">
-        <v>54</v>
-      </c>
-      <c r="U14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>200</v>
       </c>
       <c r="E15" t="s">
         <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L15" t="s">
+        <v>200</v>
+      </c>
+      <c r="M15" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" t="s">
+        <v>202</v>
+      </c>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" t="s">
+        <v>199</v>
+      </c>
+      <c r="S15" t="s">
+        <v>200</v>
+      </c>
+      <c r="T15" t="s">
+        <v>201</v>
+      </c>
+      <c r="U15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="H15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" t="s">
-        <v>202</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="B16" t="s">
         <v>203</v>
       </c>
-      <c r="K15" t="s">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" t="s">
         <v>204</v>
       </c>
-      <c r="L15" t="s">
-        <v>202</v>
-      </c>
-      <c r="M15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" t="s">
-        <v>201</v>
-      </c>
-      <c r="P15" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
         <v>203</v>
       </c>
-      <c r="R15" t="s">
-        <v>204</v>
-      </c>
-      <c r="S15" t="s">
-        <v>202</v>
-      </c>
-      <c r="T15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" t="s">
-        <v>57</v>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M16" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>206</v>
+      </c>
+      <c r="R16" t="s">
+        <v>207</v>
+      </c>
+      <c r="S16" t="s">
+        <v>208</v>
+      </c>
+      <c r="T16" t="s">
+        <v>209</v>
+      </c>
+      <c r="U16" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>207</v>
-      </c>
-      <c r="J16" t="s">
-        <v>208</v>
-      </c>
-      <c r="K16" t="s">
-        <v>209</v>
-      </c>
-      <c r="L16" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
         <v>211</v>
       </c>
-      <c r="N16" t="s">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
         <v>212</v>
-      </c>
-      <c r="O16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>208</v>
-      </c>
-      <c r="R16" t="s">
-        <v>209</v>
-      </c>
-      <c r="S16" t="s">
-        <v>210</v>
-      </c>
-      <c r="T16" t="s">
-        <v>211</v>
-      </c>
-      <c r="U16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>215</v>
       </c>
       <c r="I17" t="s">
         <v>213</v>
       </c>
       <c r="J17" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s">
         <v>216</v>
       </c>
-      <c r="K17" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" t="s">
-        <v>218</v>
-      </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P17" t="s">
         <v>213</v>
       </c>
       <c r="Q17" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" t="s">
         <v>216</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>217</v>
       </c>
-      <c r="S17" t="s">
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
         <v>218</v>
       </c>
-      <c r="T17" t="s">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
         <v>219</v>
       </c>
-      <c r="U17" t="s">
+      <c r="I18" t="s">
         <v>220</v>
       </c>
+      <c r="J18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" t="s">
+        <v>223</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>219</v>
+      </c>
+      <c r="P18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>221</v>
+      </c>
+      <c r="R18" t="s">
+        <v>222</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" t="s">
+        <v>223</v>
+      </c>
+      <c r="U18" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" t="s">
-        <v>224</v>
-      </c>
-      <c r="K18" t="s">
-        <v>225</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
         <v>226</v>
       </c>
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" t="s">
-        <v>222</v>
-      </c>
-      <c r="P18" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>224</v>
-      </c>
-      <c r="R18" t="s">
-        <v>225</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" t="s">
+        <v>229</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
         <v>226</v>
       </c>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s">
-        <v>102</v>
+      <c r="P19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>227</v>
+      </c>
+      <c r="R19" t="s">
+        <v>228</v>
+      </c>
+      <c r="S19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>230</v>
       </c>
-      <c r="J19" t="s">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
         <v>231</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
         <v>232</v>
       </c>
-      <c r="L19" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I20" t="s">
         <v>233</v>
       </c>
-      <c r="N19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" t="s">
-        <v>229</v>
-      </c>
-      <c r="P19" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>231</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="J20" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" t="s">
+        <v>236</v>
+      </c>
+      <c r="M20" t="s">
+        <v>237</v>
+      </c>
+      <c r="N20" t="s">
+        <v>238</v>
+      </c>
+      <c r="O20" t="s">
         <v>232</v>
       </c>
-      <c r="S19" t="s">
-        <v>101</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="P20" t="s">
         <v>233</v>
       </c>
-      <c r="U19" t="s">
-        <v>45</v>
+      <c r="Q20" t="s">
+        <v>234</v>
+      </c>
+      <c r="R20" t="s">
+        <v>235</v>
+      </c>
+      <c r="S20" t="s">
+        <v>236</v>
+      </c>
+      <c r="T20" t="s">
+        <v>237</v>
+      </c>
+      <c r="U20" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s">
-        <v>237</v>
-      </c>
-      <c r="K20" t="s">
-        <v>238</v>
-      </c>
-      <c r="L20" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>239</v>
       </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" t="s">
-        <v>236</v>
-      </c>
-      <c r="P20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>237</v>
-      </c>
-      <c r="R20" t="s">
-        <v>238</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
         <v>239</v>
-      </c>
-      <c r="T20" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>241</v>
       </c>
       <c r="E21" t="s">
         <v>240</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" t="s">
         <v>242</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>243</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>244</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>239</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" t="s">
+        <v>241</v>
+      </c>
+      <c r="P21" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>243</v>
+      </c>
+      <c r="R21" t="s">
+        <v>244</v>
+      </c>
+      <c r="S21" t="s">
+        <v>239</v>
+      </c>
+      <c r="T21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>245</v>
       </c>
-      <c r="L21" t="s">
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" t="s">
         <v>246</v>
       </c>
-      <c r="M21" t="s">
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
         <v>247</v>
       </c>
-      <c r="N21" t="s">
+      <c r="I22" t="s">
         <v>248</v>
       </c>
-      <c r="O21" t="s">
-        <v>242</v>
-      </c>
-      <c r="P21" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>244</v>
-      </c>
-      <c r="R21" t="s">
-        <v>245</v>
-      </c>
-      <c r="S21" t="s">
-        <v>246</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="J22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" t="s">
         <v>247</v>
       </c>
-      <c r="U21" t="s">
+      <c r="P22" t="s">
         <v>248</v>
       </c>
+      <c r="Q22" t="s">
+        <v>249</v>
+      </c>
+      <c r="R22" t="s">
+        <v>250</v>
+      </c>
+      <c r="S22" t="s">
+        <v>251</v>
+      </c>
+      <c r="T22" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>252</v>
       </c>
-      <c r="J22" t="s">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
         <v>253</v>
       </c>
-      <c r="K22" t="s">
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
         <v>254</v>
       </c>
-      <c r="L22" t="s">
-        <v>249</v>
-      </c>
-      <c r="M22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" t="s">
-        <v>251</v>
-      </c>
-      <c r="P22" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>253</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" t="s">
+        <v>257</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" t="s">
         <v>254</v>
       </c>
-      <c r="S22" t="s">
-        <v>249</v>
-      </c>
-      <c r="T22" t="s">
-        <v>43</v>
-      </c>
-      <c r="U22" t="s">
-        <v>43</v>
+      <c r="P23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>255</v>
+      </c>
+      <c r="R23" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>258</v>
       </c>
-      <c r="J23" t="s">
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" t="s">
         <v>259</v>
       </c>
-      <c r="K23" t="s">
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
         <v>260</v>
       </c>
-      <c r="L23" t="s">
+      <c r="J24" t="s">
         <v>261</v>
       </c>
-      <c r="M23" t="s">
+      <c r="K24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>261</v>
+      </c>
+      <c r="R24" t="s">
+        <v>262</v>
+      </c>
+      <c r="S24" t="s">
+        <v>263</v>
+      </c>
+      <c r="T24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" t="s">
         <v>103</v>
       </c>
-      <c r="N23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" t="s">
-        <v>257</v>
-      </c>
-      <c r="P23" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>259</v>
-      </c>
-      <c r="R23" t="s">
-        <v>260</v>
-      </c>
-      <c r="S23" t="s">
-        <v>261</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" t="s">
+        <v>266</v>
+      </c>
+      <c r="P25" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>268</v>
+      </c>
+      <c r="R25" t="s">
+        <v>269</v>
+      </c>
+      <c r="S25" t="s">
+        <v>270</v>
+      </c>
+      <c r="T25" t="s">
+        <v>271</v>
+      </c>
+      <c r="U25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I26" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" t="s">
+        <v>276</v>
+      </c>
+      <c r="L26" t="s">
+        <v>277</v>
+      </c>
+      <c r="M26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" t="s">
+        <v>274</v>
+      </c>
+      <c r="P26" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>275</v>
+      </c>
+      <c r="R26" t="s">
+        <v>276</v>
+      </c>
+      <c r="S26" t="s">
+        <v>277</v>
+      </c>
+      <c r="T26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I27" t="s">
+        <v>281</v>
+      </c>
+      <c r="J27" t="s">
+        <v>282</v>
+      </c>
+      <c r="K27" t="s">
+        <v>283</v>
+      </c>
+      <c r="L27" t="s">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
+        <v>285</v>
+      </c>
+      <c r="O27" t="s">
+        <v>280</v>
+      </c>
+      <c r="P27" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>282</v>
+      </c>
+      <c r="R27" t="s">
+        <v>283</v>
+      </c>
+      <c r="S27" t="s">
+        <v>284</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E28" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28" t="s">
+        <v>289</v>
+      </c>
+      <c r="J28" t="s">
+        <v>290</v>
+      </c>
+      <c r="K28" t="s">
+        <v>291</v>
+      </c>
+      <c r="L28" t="s">
+        <v>292</v>
+      </c>
+      <c r="M28" t="s">
+        <v>293</v>
+      </c>
+      <c r="N28" t="s">
+        <v>294</v>
+      </c>
+      <c r="O28" t="s">
+        <v>288</v>
+      </c>
+      <c r="P28" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>290</v>
+      </c>
+      <c r="R28" t="s">
+        <v>291</v>
+      </c>
+      <c r="S28" t="s">
+        <v>292</v>
+      </c>
+      <c r="T28" t="s">
+        <v>293</v>
+      </c>
+      <c r="U28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>297</v>
+      </c>
+      <c r="I29" t="s">
+        <v>298</v>
+      </c>
+      <c r="J29" t="s">
+        <v>299</v>
+      </c>
+      <c r="K29" t="s">
+        <v>300</v>
+      </c>
+      <c r="L29" t="s">
+        <v>301</v>
+      </c>
+      <c r="M29" t="s">
+        <v>302</v>
+      </c>
+      <c r="N29" t="s">
+        <v>303</v>
+      </c>
+      <c r="O29" t="s">
+        <v>297</v>
+      </c>
+      <c r="P29" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>299</v>
+      </c>
+      <c r="R29" t="s">
+        <v>300</v>
+      </c>
+      <c r="S29" t="s">
+        <v>301</v>
+      </c>
+      <c r="T29" t="s">
+        <v>302</v>
+      </c>
+      <c r="U29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E30" t="s">
+        <v>305</v>
+      </c>
+      <c r="F30" t="s">
         <v>103</v>
       </c>
-      <c r="U23" t="s">
-        <v>58</v>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>306</v>
+      </c>
+      <c r="I30" t="s">
+        <v>307</v>
+      </c>
+      <c r="J30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K30" t="s">
+        <v>309</v>
+      </c>
+      <c r="L30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" t="s">
+        <v>302</v>
+      </c>
+      <c r="O30" t="s">
+        <v>306</v>
+      </c>
+      <c r="P30" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>308</v>
+      </c>
+      <c r="R30" t="s">
+        <v>309</v>
+      </c>
+      <c r="S30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" t="s">
+        <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" t="s">
-        <v>263</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>264</v>
-      </c>
-      <c r="I24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" t="s">
-        <v>266</v>
-      </c>
-      <c r="L24" t="s">
-        <v>267</v>
-      </c>
-      <c r="M24" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" t="s">
-        <v>264</v>
-      </c>
-      <c r="P24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>265</v>
-      </c>
-      <c r="R24" t="s">
-        <v>266</v>
-      </c>
-      <c r="S24" t="s">
-        <v>267</v>
-      </c>
-      <c r="T24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" t="s">
-        <v>271</v>
-      </c>
-      <c r="K25" t="s">
-        <v>272</v>
-      </c>
-      <c r="L25" t="s">
-        <v>273</v>
-      </c>
-      <c r="M25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>271</v>
-      </c>
-      <c r="R25" t="s">
-        <v>272</v>
-      </c>
-      <c r="S25" t="s">
-        <v>273</v>
-      </c>
-      <c r="T25" t="s">
-        <v>35</v>
-      </c>
-      <c r="U25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>274</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>276</v>
-      </c>
-      <c r="I26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J26" t="s">
-        <v>278</v>
-      </c>
-      <c r="K26" t="s">
-        <v>279</v>
-      </c>
-      <c r="L26" t="s">
-        <v>280</v>
-      </c>
-      <c r="M26" t="s">
-        <v>281</v>
-      </c>
-      <c r="N26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" t="s">
-        <v>276</v>
-      </c>
-      <c r="P26" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>278</v>
-      </c>
-      <c r="R26" t="s">
-        <v>279</v>
-      </c>
-      <c r="S26" t="s">
-        <v>280</v>
-      </c>
-      <c r="T26" t="s">
-        <v>281</v>
-      </c>
-      <c r="U26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" t="s">
-        <v>284</v>
-      </c>
-      <c r="I27" t="s">
-        <v>282</v>
-      </c>
-      <c r="J27" t="s">
-        <v>285</v>
-      </c>
-      <c r="K27" t="s">
-        <v>286</v>
-      </c>
-      <c r="L27" t="s">
-        <v>287</v>
-      </c>
-      <c r="M27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" t="s">
-        <v>284</v>
-      </c>
-      <c r="P27" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>285</v>
-      </c>
-      <c r="R27" t="s">
-        <v>286</v>
-      </c>
-      <c r="S27" t="s">
-        <v>287</v>
-      </c>
-      <c r="T27" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>288</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" t="s">
-        <v>289</v>
-      </c>
-      <c r="F28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>290</v>
-      </c>
-      <c r="I28" t="s">
-        <v>291</v>
-      </c>
-      <c r="J28" t="s">
-        <v>292</v>
-      </c>
-      <c r="K28" t="s">
-        <v>293</v>
-      </c>
-      <c r="L28" t="s">
-        <v>294</v>
-      </c>
-      <c r="M28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N28" t="s">
-        <v>295</v>
-      </c>
-      <c r="O28" t="s">
-        <v>290</v>
-      </c>
-      <c r="P28" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>292</v>
-      </c>
-      <c r="R28" t="s">
-        <v>293</v>
-      </c>
-      <c r="S28" t="s">
-        <v>294</v>
-      </c>
-      <c r="T28" t="s">
-        <v>37</v>
-      </c>
-      <c r="U28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>298</v>
-      </c>
-      <c r="I29" t="s">
-        <v>299</v>
-      </c>
-      <c r="J29" t="s">
-        <v>300</v>
-      </c>
-      <c r="K29" t="s">
-        <v>301</v>
-      </c>
-      <c r="L29" t="s">
-        <v>302</v>
-      </c>
-      <c r="M29" t="s">
-        <v>303</v>
-      </c>
-      <c r="N29" t="s">
-        <v>304</v>
-      </c>
-      <c r="O29" t="s">
-        <v>298</v>
-      </c>
-      <c r="P29" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>300</v>
-      </c>
-      <c r="R29" t="s">
-        <v>301</v>
-      </c>
-      <c r="S29" t="s">
-        <v>302</v>
-      </c>
-      <c r="T29" t="s">
-        <v>303</v>
-      </c>
-      <c r="U29" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F30" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" t="s">
-        <v>307</v>
-      </c>
-      <c r="I30" t="s">
-        <v>308</v>
-      </c>
-      <c r="J30" t="s">
-        <v>309</v>
-      </c>
-      <c r="K30" t="s">
-        <v>310</v>
-      </c>
-      <c r="L30" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" t="s">
-        <v>312</v>
-      </c>
-      <c r="N30" t="s">
-        <v>313</v>
-      </c>
-      <c r="O30" t="s">
-        <v>307</v>
-      </c>
-      <c r="P30" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>309</v>
-      </c>
-      <c r="R30" t="s">
-        <v>310</v>
-      </c>
-      <c r="S30" t="s">
-        <v>311</v>
-      </c>
-      <c r="T30" t="s">
-        <v>312</v>
-      </c>
-      <c r="U30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E31" t="s">
-        <v>315</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>316</v>
-      </c>
-      <c r="I31" t="s">
-        <v>317</v>
-      </c>
-      <c r="J31" t="s">
-        <v>318</v>
-      </c>
-      <c r="K31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L31" t="s">
-        <v>94</v>
-      </c>
-      <c r="M31" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" t="s">
-        <v>312</v>
-      </c>
-      <c r="O31" t="s">
-        <v>316</v>
-      </c>
-      <c r="P31" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>318</v>
-      </c>
-      <c r="R31" t="s">
-        <v>319</v>
-      </c>
-      <c r="S31" t="s">
-        <v>94</v>
-      </c>
-      <c r="T31" t="s">
-        <v>59</v>
-      </c>
-      <c r="U31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}">
       <selection activeCell="S41" sqref="S41"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36246,10 +35831,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}">
+    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
+    <customSheetView guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -36266,10 +35851,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}">
+    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{02FE90F7-7852-43AF-A2AC-9192597C7D66}">
+    <customSheetView guid="{05B5E080-9ABA-4416-B4A2-DFCA001314B3}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
